--- a/data/trans_orig/IP1011-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87DC7398-0E20-4611-9838-44D65E10944A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D79D30-0D11-439C-821C-831A8B259DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DC74D5EE-93CA-469A-8BA5-1FB816564153}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{493FC18A-1FBB-404E-B627-4595763CEEF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,39 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -139,39 +172,6 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -229,6 +229,36 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
     <t>98,8%</t>
   </si>
   <si>
@@ -253,36 +283,6 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -322,6 +322,30 @@
     <t>0,59%</t>
   </si>
   <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
@@ -332,30 +356,6 @@
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFEF14B-0209-4B4B-A3A0-D1BB69FCD587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87302709-A7BA-4519-9BB7-098E64B8772A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1026,49 +1026,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>421</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>280831</v>
+        <v>216738</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>303</v>
+      </c>
+      <c r="I7" s="7">
+        <v>204617</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>393</v>
-      </c>
-      <c r="I7" s="7">
-        <v>264942</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
+        <v>631</v>
+      </c>
+      <c r="N7" s="7">
+        <v>421355</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>814</v>
-      </c>
-      <c r="N7" s="7">
-        <v>545773</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,46 +1077,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>667</v>
+        <v>1303</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1908</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1328</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>32</v>
@@ -1128,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1143,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1158,10 +1158,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1181,49 +1181,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>216738</v>
+        <v>280831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>393</v>
+      </c>
+      <c r="I10" s="7">
+        <v>264942</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>814</v>
+      </c>
+      <c r="N10" s="7">
+        <v>545773</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>303</v>
-      </c>
-      <c r="I10" s="7">
-        <v>204617</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>631</v>
-      </c>
-      <c r="N10" s="7">
-        <v>421355</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,46 +1232,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1303</v>
+        <v>667</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>605</v>
+        <v>661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1908</v>
+        <v>1328</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1283,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1298,10 +1298,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1313,10 +1313,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1499,7 +1499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7980A444-E4C4-4FB5-B238-947E16042128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3C6C0E-D65D-4C28-8FBD-C9F266C48FB1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1772,13 +1772,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>269703</v>
+        <v>239428</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>63</v>
@@ -1787,10 +1787,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="I7" s="7">
-        <v>253546</v>
+        <v>227422</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>64</v>
@@ -1802,16 +1802,16 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>758</v>
+        <v>649</v>
       </c>
       <c r="N7" s="7">
-        <v>523249</v>
+        <v>466850</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1826,46 +1826,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1307</v>
+        <v>1428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1889,10 +1889,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1904,10 +1904,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1927,46 +1927,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>239428</v>
+        <v>269703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="I10" s="7">
-        <v>227422</v>
+        <v>253546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>649</v>
+        <v>758</v>
       </c>
       <c r="N10" s="7">
-        <v>466850</v>
+        <v>523249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1981,40 +1981,40 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>756</v>
+        <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1428</v>
+        <v>1307</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
@@ -2029,10 +2029,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2044,10 +2044,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2059,10 +2059,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2245,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832A93D-ABCE-4DCF-98DB-32DD79813152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992A626-7EA0-4801-BD92-ADA95F375EA2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2402,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2456,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,25 +2518,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>281629</v>
+        <v>249339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -2548,19 +2548,19 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>756</v>
+        <v>722</v>
       </c>
       <c r="N7" s="7">
-        <v>549399</v>
+        <v>484672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,19 +2569,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2596,22 +2596,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2635,10 +2635,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2650,10 +2650,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2673,49 +2673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>249339</v>
+        <v>281629</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="N10" s="7">
-        <v>484672</v>
+        <v>549399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,19 +2724,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2751,22 +2751,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2790,10 +2790,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2805,10 +2805,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2837,7 +2837,7 @@
         <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2867,7 +2867,7 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2891,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1011-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D79D30-0D11-439C-821C-831A8B259DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3A4D3E-F32C-4C29-BFB1-989DF554CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{493FC18A-1FBB-404E-B627-4595763CEEF7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4781119E-6600-4CC5-9F21-FC6B6B546B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="108">
-  <si>
-    <t>Menores según si padecen sindrome de down en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
+  <si>
+    <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,292 +94,364 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,64%</t>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sindrome de down en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sindrome de down en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -372,7 +462,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -468,39 +558,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -552,7 +642,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -663,13 +753,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -678,6 +761,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -742,19 +832,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87302709-A7BA-4519-9BB7-098E64B8772A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F68FDC9-5C45-4F14-AE60-ED195B39F129}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -871,10 +981,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -886,34 +996,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -922,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -937,34 +1047,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -973,49 +1083,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1026,49 +1136,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>216738</v>
+        <v>1303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>204617</v>
+        <v>605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
-        <v>631</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>421355</v>
+        <v>1908</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,49 +1187,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>1303</v>
+        <v>252453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="I8" s="7">
-        <v>605</v>
+        <v>252600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>1908</v>
+        <v>505053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1128,102 +1238,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>280831</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>264942</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>545773</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,49 +1342,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>667</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>661</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>1328</v>
+        <v>269063</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1283,102 +1393,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1083</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>720730</v>
+        <v>667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>679755</v>
+        <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>2099</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1400485</v>
+        <v>1328</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,49 +1497,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>1970</v>
+        <v>205382</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>285</v>
+      </c>
+      <c r="I14" s="7">
+        <v>193436</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="7">
+        <v>594</v>
+      </c>
+      <c r="N14" s="7">
+        <v>398818</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1266</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3236</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,55 +1548,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1970</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1266</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3236</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1083</v>
+      </c>
+      <c r="D17" s="7">
+        <v>720730</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679755</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2099</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1400485</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1499,8 +1770,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3C6C0E-D65D-4C28-8FBD-C9F266C48FB1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5947EE6-514E-49D8-BCD5-F16B5D85FE8B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1516,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1617,10 +1888,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1629,13 +1900,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1644,22 +1915,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1939,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,49 +1990,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,49 +2043,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>239428</v>
+        <v>672</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>227422</v>
+        <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M7" s="7">
-        <v>649</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>466850</v>
+        <v>1428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,49 +2094,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>672</v>
+        <v>266429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>756</v>
+        <v>233720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>1428</v>
+        <v>500148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,102 +2145,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>269703</v>
+        <v>651</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>253546</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
-        <v>758</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>523249</v>
+        <v>651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,49 +2249,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>651</v>
+        <v>157920</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>656</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>1307</v>
+        <v>312754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,102 +2300,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>746819</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H13" s="7">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>705516</v>
+        <v>656</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>2080</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1452335</v>
+        <v>656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2404,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>1323</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>1412</v>
+        <v>170681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>504</v>
       </c>
       <c r="N14" s="7">
-        <v>2735</v>
+        <v>348638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,55 +2455,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1323</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1412</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2735</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1064</v>
+      </c>
+      <c r="D17" s="7">
+        <v>746819</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705516</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2080</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1452335</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2245,8 +2677,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5992A626-7EA0-4801-BD92-ADA95F375EA2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA68769-380C-4F9B-A89E-F36828A3C486}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2262,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2363,49 +2795,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,49 +2846,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,49 +2897,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,49 +2950,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>249339</v>
+        <v>713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>722</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>484672</v>
+        <v>713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,49 +3001,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>713</v>
+        <v>257348</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>713</v>
+        <v>467865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,102 +3052,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281629</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>549399</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,49 +3156,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,102 +3207,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>744131</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1448502</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +3311,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>713</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>713</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,55 +3362,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>713</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>713</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1064</v>
+      </c>
+      <c r="D17" s="7">
+        <v>744131</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2125</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1448502</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1011-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E3A4D3E-F32C-4C29-BFB1-989DF554CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D796524-BBA1-4E2F-A9AB-C14C2A119B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4781119E-6600-4CC5-9F21-FC6B6B546B5C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A70CAF84-E4F0-414C-BFAF-41602974702F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="140">
   <si>
     <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -112,280 +112,280 @@
     <t>0,51%</t>
   </si>
   <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen síndrome de down en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen síndrome de down en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,02%</t>
@@ -400,7 +400,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,58%</t>
@@ -409,13 +409,19 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>98,61%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
     <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -863,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F68FDC9-5C45-4F14-AE60-ED195B39F129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FB91F-4D57-4962-8998-A687FCBC72D1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1178,7 +1184,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,10 +1199,10 @@
         <v>252453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1208,10 +1214,10 @@
         <v>252600</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1223,13 +1229,13 @@
         <v>505053</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1285,7 +1291,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1303,7 +1309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1318,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1333,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1366,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1381,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1452,13 +1458,13 @@
         <v>667</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1467,13 +1473,13 @@
         <v>661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1482,13 +1488,13 @@
         <v>1328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,10 +1509,10 @@
         <v>205382</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1518,10 +1524,10 @@
         <v>193436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1533,10 +1539,10 @@
         <v>398818</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1770,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5947EE6-514E-49D8-BCD5-F16B5D85FE8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CC6D3C-2DB3-4302-81A7-A5BCD4C2B101}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2064,7 +2070,7 @@
         <v>756</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2115,7 +2121,7 @@
         <v>233720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>86</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2240,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,10 +2261,10 @@
         <v>157920</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2273,7 +2279,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2285,10 +2291,10 @@
         <v>312754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2347,7 +2353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2365,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2380,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2395,7 +2401,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2425,10 +2431,10 @@
         <v>170681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2443,7 +2449,7 @@
         <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2514,13 +2520,13 @@
         <v>1323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2529,13 +2535,13 @@
         <v>1412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2547,10 +2553,10 @@
         <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,10 +2571,10 @@
         <v>746819</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2580,10 +2586,10 @@
         <v>705516</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2598,10 +2604,10 @@
         <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA68769-380C-4F9B-A89E-F36828A3C486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED834B7F-E35B-4D37-9975-54BF9BAA4A47}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2992,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3016,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3025,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3037,10 +3043,10 @@
         <v>467865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3099,7 +3105,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3117,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3132,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3147,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3171,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3180,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3195,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3254,7 +3260,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3272,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3287,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3302,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,7 +3326,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3335,7 +3341,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3350,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3421,13 +3427,13 @@
         <v>713</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3442,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3451,7 +3457,7 @@
         <v>713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -3472,10 +3478,10 @@
         <v>744131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3490,7 +3496,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3502,7 +3508,7 @@
         <v>1448502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/IP1011-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1011-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D796524-BBA1-4E2F-A9AB-C14C2A119B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47956962-87EA-4330-B040-4A73E3AF6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A70CAF84-E4F0-414C-BFAF-41602974702F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F06E4C4E-DD0C-4337-95A1-5DE97AFDD79C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
   <si>
     <t>Menores según si padecen síndrome de down en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,31 +94,31 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -127,82 +127,94 @@
     <t>0,12%</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>98,17%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>98,92%</t>
+  </si>
+  <si>
     <t>99,88%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,84%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -211,13 +223,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -229,21 +235,21 @@
     <t>0,55%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>99,77%</t>
   </si>
   <si>
@@ -259,127 +265,127 @@
     <t>Menores según si padecen síndrome de down en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -388,40 +394,40 @@
     <t>Menores según si padecen síndrome de down en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,09%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -436,18 +442,12 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>99,19%</t>
-  </si>
-  <si>
     <t>99,22%</t>
   </si>
   <si>
@@ -457,7 +457,13 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
 </sst>
 </file>
@@ -869,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025FB91F-4D57-4962-8998-A687FCBC72D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DE0FF3-2B50-41CD-98EF-C3002A9BD239}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1038,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1053,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1089,25 +1095,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1142,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1303</v>
+        <v>605</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1157,10 +1163,10 @@
         <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>605</v>
+        <v>1303</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1184,7 +1190,7 @@
         <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,31 +1199,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>378</v>
+      </c>
+      <c r="D8" s="7">
+        <v>252600</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>252453</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>378</v>
-      </c>
-      <c r="I8" s="7">
-        <v>252600</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1229,13 +1235,13 @@
         <v>505053</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,25 +1250,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1291,7 +1297,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1309,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1324,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1339,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,31 +1354,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1387,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1399,25 +1405,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1446,7 +1452,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1455,31 +1461,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1488,13 +1494,13 @@
         <v>1328</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,31 +1509,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>285</v>
+      </c>
+      <c r="D14" s="7">
+        <v>193436</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>309</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>205382</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>285</v>
-      </c>
-      <c r="I14" s="7">
-        <v>193436</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1539,10 +1545,10 @@
         <v>398818</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1554,25 +1560,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1607,34 +1613,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1266</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>1970</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1266</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1643,13 +1649,13 @@
         <v>3236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,34 +1664,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679755</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1083</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>720730</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679755</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>2099</v>
@@ -1694,13 +1700,13 @@
         <v>1400485</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,25 +1715,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CC6D3C-2DB3-4302-81A7-A5BCD4C2B101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFA46FE-12ED-42CE-9B63-C9E389B9A22B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1793,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1906,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1921,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1936,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,31 +1951,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>218</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>205</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>144513</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>218</v>
-      </c>
-      <c r="I5" s="7">
-        <v>146281</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -1984,7 +1990,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1996,25 +2002,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2052,31 +2058,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>756</v>
+        <v>672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2085,13 +2091,13 @@
         <v>1428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,31 +2106,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>336</v>
+      </c>
+      <c r="D8" s="7">
+        <v>233720</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>370</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>266429</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>336</v>
-      </c>
-      <c r="I8" s="7">
-        <v>233720</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2136,10 +2142,10 @@
         <v>500148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2151,25 +2157,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2198,40 +2204,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>651</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2240,13 +2246,13 @@
         <v>651</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,34 +2261,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>227</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>157920</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>220</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154834</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2291,10 +2297,10 @@
         <v>312754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2306,25 +2312,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2353,40 +2359,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>656</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2395,13 +2401,13 @@
         <v>656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,34 +2416,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>242</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170681</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
         <v>262</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177957</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>242</v>
-      </c>
-      <c r="I14" s="7">
-        <v>170681</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>504</v>
@@ -2446,10 +2452,10 @@
         <v>348638</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2461,25 +2467,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2517,31 +2523,31 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1323</v>
+        <v>1412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1412</v>
+        <v>1323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2550,13 +2556,13 @@
         <v>2735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,31 +2571,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7">
+        <v>705516</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1064</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>746819</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I17" s="7">
-        <v>705516</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2601,13 +2607,13 @@
         <v>1452335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,25 +2622,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2663,7 +2669,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED834B7F-E35B-4D37-9975-54BF9BAA4A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6E12F6-B8AB-4DC0-915D-79583EC6A0D9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2813,7 +2819,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2828,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2843,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,31 +2858,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2891,7 +2897,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2903,25 +2909,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2956,34 +2962,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>713</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2992,13 +2998,13 @@
         <v>713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,34 +3013,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>379</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>257348</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>711</v>
@@ -3043,10 +3049,10 @@
         <v>467865</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3058,25 +3064,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3105,7 +3111,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3123,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3138,7 +3144,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3153,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,31 +3168,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>263</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>188572</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3201,7 +3207,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3213,25 +3219,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3260,7 +3266,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3278,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3293,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3308,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,31 +3323,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3368,25 +3374,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3421,34 +3427,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>713</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3457,13 +3463,13 @@
         <v>713</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,34 +3478,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1064</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744131</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2125</v>
@@ -3508,10 +3514,10 @@
         <v>1448502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3523,25 +3529,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
